--- a/reverseprimer-v3_11.xlsx
+++ b/reverseprimer-v3_11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_11" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0961-GACAGGTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAGGTTCAGTCTCGTGGGCTCGG</t>
+    <t>R0961-TCAGTCGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTCGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0962-TCTGACAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGACAAGCGTCTCGTGGGCTCGG</t>
+    <t>R0962-AACGATCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGATCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0963-TCCATCTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATCTCTGGTCTCGTGGGCTCGG</t>
+    <t>R0963-AGAGACAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0964-TAGTCTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTGGAAGTCTCGTGGGCTCGG</t>
+    <t>R0964-CAACCAAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCAAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0965-ACTACGACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACGACCTGTCTCGTGGGCTCGG</t>
+    <t>R0965-AACACAACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACAACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0966-GAACGTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACGTCTACGTCTCGTGGGCTCGG</t>
+    <t>R0966-TCCATCTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATCTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0967-AACTCTGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCTGCTAGTCTCGTGGGCTCGG</t>
+    <t>R0967-CAACTCGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTCGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0968-TAGCTACTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTACTGAGTCTCGTGGGCTCGG</t>
+    <t>R0968-CGATGACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATGACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0969-ACTTCTCAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCTCAGCGTCTCGTGGGCTCGG</t>
+    <t>R0969-GATGGTTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGTTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0970-TGTGTGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTGTACAGTCTCGTGGGCTCGG</t>
+    <t>R0970-ACAACACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACACTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R0971-GAGATGGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGATGGTCAGTCTCGTGGGCTCGG</t>
+    <t>R0971-ACAACCACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACCACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0972-AGAACTACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACTACTCGTCTCGTGGGCTCGG</t>
+    <t>R0972-AAGGAGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGAGTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0973-TGTCCTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCCTCGTAGTCTCGTGGGCTCGG</t>
+    <t>R0973-TCCTCAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R0974-TTGATCGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGATCGTCAGTCTCGTGGGCTCGG</t>
+    <t>R0974-AGAGACTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R0975-CTTCAGTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAGTGACGTCTCGTGGGCTCGG</t>
+    <t>R0975-TTGCACACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCACACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R0976-TCCTGTAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTAGAAGTCTCGTGGGCTCGG</t>
+    <t>R0976-AGGTCTTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R0977-GAAGTGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTGATCGGTCTCGTGGGCTCGG</t>
+    <t>R0977-GATGCAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCAGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R0978-ATGCAACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCAACTCTGTCTCGTGGGCTCGG</t>
+    <t>R0978-GCTAGACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTAGACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R0979-TCGTACTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTACTGAAGTCTCGTGGGCTCGG</t>
+    <t>R0979-ATCAGTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAGTGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R0980-CAGCAACGTA</t>
+    <t>R0980-ACCATCTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATCTGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R0981-ACTGTGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTGTCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R0982-CTGTAGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGGATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R0983-TAGGAACCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGAACCAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R0984-AAGCTCTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTCTCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R0985-ACATGTAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGTAGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R0986-AGCTAGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTAGTCCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R0987-AGTGAGTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGAGTCCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R0988-CAAGGTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGGTCGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R0989-AGGAACCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAACCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R0990-AGGAAGGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R0991-AGTCTGGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTGGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R0992-CAGTTCAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTTCAGTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R0993-TGAACTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACTGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R0994-GACTTCGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTTCGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R0995-TACAGGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGGATGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R0996-GAACACAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACACAAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R0997-CACGACAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACGACAACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R0998-GGTTCAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTCAGGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R0999-TTCTGAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGAGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R1000-TCTACTGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACTGAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R1001-TCAAGTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAAGTAGGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R1002-CTGTCTAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTCTAGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R1003-GCTTCAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTCAGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R1004-CATCAGTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCAGTGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R1005-AGAGAAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAAGGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R1006-CAGCAACGTA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATCAGCAACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R0981-AACTGAGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGAGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R0982-TACTGTACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGTACCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R0983-TCGTCTTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCTTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R0984-AAGTAGCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R0985-ACGTACCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTACCAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R0986-TCTAGTCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGTCTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R0987-CACAGGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAGGTAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R0988-TCCACTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCACTCCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R0989-CCAACTAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAACTAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R0990-TCCACAACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCACAACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R0991-CTCCAAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCAAGTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R0992-ATGTAGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTAGTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R0993-GCATCGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCGAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R0994-CGTTCTTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTCTTGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R0995-TAGCAGGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R0996-GTAGTCTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCTGAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R0997-TTGACGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACGATCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R0998-ATCCAACTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCAACTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R0999-AACACTCAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACTCAGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R1000-TCCAACACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAACACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R1001-AGTTGCAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGCAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R1002-AGGATCATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGATCATCCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R1003-AAGAGGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGGACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R1004-ATCTCACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCACAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R1005-TAGCAAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAAGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R1006-TGGAAGAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAAGAGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R1007-TTGAGTCTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGTCTCCGTCTCGTGGGCTCGG</t>
+    <t>R1007-AACCTACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R1008-CAGAGTTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAGTTGGAGTCTCGTGGGCTCGG</t>
+    <t>R1008-AGCTTGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTTGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R1009-AACCAACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAACTCAGTCTCGTGGGCTCGG</t>
+    <t>R1009-TTGACACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R1010-GCATGATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGATCCTGTCTCGTGGGCTCGG</t>
+    <t>R1010-GAACTCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTCAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R1011-GTACACAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACACAGACGTCTCGTGGGCTCGG</t>
+    <t>R1011-TTGTTGGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTTGGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R1012-GATGACAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGACAACCGTCTCGTGGGCTCGG</t>
+    <t>R1012-TCAGGTTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGGTTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R1013-TCCATGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATGTGTCGTCTCGTGGGCTCGG</t>
+    <t>R1013-CAAGCACAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGCACAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R1014-AGGAACAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAACAGATGTCTCGTGGGCTCGG</t>
+    <t>R1014-AGACAGCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACAGCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R1015-CTACAGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACAGTCTTGTCTCGTGGGCTCGG</t>
+    <t>R1015-CTTCATCGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCATCGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R1016-GAAGGATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGATGGAGTCTCGTGGGCTCGG</t>
+    <t>R1016-GTACACACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACACACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R1017-TGATCGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R1017-GTAGACTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGACTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R1018-AAGACACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACACAGAGTCTCGTGGGCTCGG</t>
+    <t>R1018-TCTCGATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGATCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R1019-CTACAGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACAGATGCGTCTCGTGGGCTCGG</t>
+    <t>R1019-TCTGACTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGACTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R1020-CTCTACACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTACACTCGTCTCGTGGGCTCGG</t>
+    <t>R1020-TAGTGGTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTGGTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R1021-GAACAGTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAGTCCAGTCTCGTGGGCTCGG</t>
+    <t>R1021-TGCAACAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAACAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R1022-TCCTGTCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTGTCTGTGTCTCGTGGGCTCGG</t>
+    <t>R1022-GTACGAAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGAAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R1023-TAGTCAGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCAGCTCGTCTCGTGGGCTCGG</t>
+    <t>R1023-AAGACTGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACTGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R1024-AACGTGTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTGTGGTGTCTCGTGGGCTCGG</t>
+    <t>R1024-ATGGTGTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTGTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R1025-ATCCTACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTACAGAGTCTCGTGGGCTCGG</t>
+    <t>R1025-TGTCTGTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTGTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R1026-ATGCTCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGCTCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R1026-GAACGATCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACGATCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R1027-ACCTTCACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTTCACTCGTCTCGTGGGCTCGG</t>
+    <t>R1027-AGAGGTACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGGTACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R1028-AGAAGCTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCTAGGGTCTCGTGGGCTCGG</t>
+    <t>R1028-GTCTCAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTCAGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R1029-TGTGTCGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGTCGACTGTCTCGTGGGCTCGG</t>
+    <t>R1029-AAGTCAGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCAGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R1030-ACCTAGACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTAGACATGTCTCGTGGGCTCGG</t>
+    <t>R1030-GCATCTTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCTTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R1031-ACAGACACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGACACTTGTCTCGTGGGCTCGG</t>
+    <t>R1031-GTCACAACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACAACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R1032-GTACTAGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTAGCACGTCTCGTGGGCTCGG</t>
+    <t>R1032-CAGGTGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGTGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R1033-AGCTCTTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTCTTGACGTCTCGTGGGCTCGG</t>
+    <t>R1033-GTTCTCGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R1034-CGATCATGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCATGTGGTCTCGTGGGCTCGG</t>
+    <t>R1034-TTCTGGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTGGTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R1035-TGCAGTAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAGTAGCAGTCTCGTGGGCTCGG</t>
+    <t>R1035-AACTGAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGAGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R1036-TCAGCTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGCTAGAGGTCTCGTGGGCTCGG</t>
+    <t>R1036-TAGACTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACTCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R1037-CATGGATCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGGATCACGTCTCGTGGGCTCGG</t>
+    <t>R1037-CGTGTTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGTTCGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R1038-CCATGCTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATGCTGATGTCTCGTGGGCTCGG</t>
+    <t>R1038-GACTGTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R1039-CTCACTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCACTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1039-CGTTGGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTGGTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R1040-GTACGTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACGTCCATGTCTCGTGGGCTCGG</t>
+    <t>R1040-GTCTCTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTCTTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R1041-TGTGATCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGATCTGAGTCTCGTGGGCTCGG</t>
+    <t>R1041-CTGTACGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTACGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R1042-TCACAGTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACAGTTGCGTCTCGTGGGCTCGG</t>
+    <t>R1042-GTAGCTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTCGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R1043-AGATCTTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCTTGCAGTCTCGTGGGCTCGG</t>
+    <t>R1043-TACGAAGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAAGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R1044-AGTGTGGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGTGGTTCGTCTCGTGGGCTCGG</t>
+    <t>R1044-TACTTGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTTGAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R1045-CGACACTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACACTAGTGTCTCGTGGGCTCGG</t>
+    <t>R1045-GATGATGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGATGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R1046-ACACACCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACCAGTGTCTCGTGGGCTCGG</t>
+    <t>R1046-GAACCACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R1047-TTCGTCGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTCGTACGTCTCGTGGGCTCGG</t>
+    <t>R1047-TACTCACTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCACTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R1048-TAGACAACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACAACGAGTCTCGTGGGCTCGG</t>
+    <t>R1048-ACCAAGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAAGAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R1049-ATCTCCAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCCAACGGTCTCGTGGGCTCGG</t>
+    <t>R1049-TGCTAGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTAGTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R1050-CTACCTCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCTCTAGGTCTCGTGGGCTCGG</t>
+    <t>R1050-TAGGACATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGACATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R1051-AGCTACAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTACAGAAGTCTCGTGGGCTCGG</t>
+    <t>R1051-AACGTCTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTCTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R1052-GAACTCGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTCGTACGTCTCGTGGGCTCGG</t>
+    <t>R1052-CAGGTTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGTTCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1053-AGAGCAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGCAACGTGTCTCGTGGGCTCGG</t>
+    <t>R1053-TCAACGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1054-TCAGACCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGACCATGGTCTCGTGGGCTCGG</t>
+    <t>R1054-CTCAGTTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGTTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1055-TCTAGACCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGACCACGTCTCGTGGGCTCGG</t>
+    <t>R1055-TACGTAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGTAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1056-AGTAGACGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGACGTGGTCTCGTGGGCTCGG</t>
+    <t>R1056-AACACCTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACCTACAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
